--- a/report.xlsx
+++ b/report.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>While</t>
+          <t>ShouldStop</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -490,11 +490,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>LogMessage</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -505,11 +505,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>InvokeWorkflowFile</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>CommentOut</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,42 +530,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Main.xaml</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>AddLogFields</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Main.xaml</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ExcelApplicationScope</t>
+          <t>MessageBox</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Main.xaml</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -575,12 +575,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DoWhile</t>
+          <t>Comment</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -590,15 +590,645 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>InvokeWorkflowFile</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CloseAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CommentOut</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ForEach</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CommentOut</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KillAllProcesses.xaml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CommentOut</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AddLogFields</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RemoveLogFields</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TakeScreenshot</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CreateDirectory</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SaveImage</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LogMessage</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UiElementExists</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BrowserScope</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CommentOut</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BrowserScope</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BrowserScope</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CreateFile</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ExcelApplicationScope</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AppendLine</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TestWorkflowTemplate.xaml</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Test_PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BrowserScope</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Test_PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Test_PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MessageBox</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Test_Poker_Tournamnet_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BrowserScope</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Test_Poker_Tournamnet_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_CheckBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_CheckBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>InvokeWorkflowFile</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UiElementExists</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CheckBreakoutRoomFunctionality.xaml</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -613,7 +1243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,35 +1280,35 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>CloseAllApplications.xaml</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -688,7 +1318,359 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KillAllProcesses.xaml</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TestWorkflowTemplate.xaml</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Test_PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Test_Poker_Tournamnet_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_CheckBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Test_Zoom_Meeting_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CheckBreakoutRoomFunctionality.xaml</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +1684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,50 +1711,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>ExitCondition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Main.xaml</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>While</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>While</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[1 = 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sequence.xaml</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Do While</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DoWhile</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[2 = 2]</t>
         </is>
       </c>
     </row>
@@ -787,7 +1725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,68 +1753,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>TakeScreenshot.xaml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Type Into no selector</t>
+          <t>Take screenshot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>TakeScreenshot</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type Into no selector 2</t>
+          <t>Attach Browser poker tournament</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>BrowserScope</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>PokerRoom_Tournament_GoToTables.xaml</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Type Into no selector 3</t>
+          <t>Attach Browser poker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>BrowserScope</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Type Into no selector 3</t>
+          <t>Attach Window zoom meeting</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>WindowScope</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CheckBreakoutRoomFunctionality.xaml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Attach Window zoom meeting</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Attach Window zoom meeting</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
         </is>
       </c>
     </row>
@@ -907,7 +1879,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>tetstProject</t>
+          <t>01_Zoom_CreateRooms</t>
         </is>
       </c>
     </row>
@@ -919,7 +1891,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blank Process</t>
+          <t>Create zoom breakout rooms based on table names in tournament</t>
         </is>
       </c>
     </row>
@@ -930,7 +1902,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222813</v>
+        <v>1036070</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +1912,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -950,7 +1922,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +1936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,68 +1964,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>RunAllTests.xaml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
+          <t>Excel application scope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ClickImage</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sequence.xaml</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Excel Application Scope</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>ExcelApplicationScope</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sequence.xaml</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ClickImage</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sequence1Nested.xaml</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ClickImage</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,57 +2011,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>ActivityType</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Main.xaml</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>While</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>While</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Main.xaml</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Click</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Click</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Main.xaml</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Type Into</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TypeInto</t>
         </is>
       </c>
     </row>
@@ -1183,31 +2053,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>GetTransactionData.xaml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>duplicated</t>
+          <t>Log Message</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>InitAllApplications.xaml</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type Into no selector 3</t>
+          <t>Log Message</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,198 +2124,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>duplicated</t>
+          <t>Element Exists poker room</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>UiElementExists</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd cls='NetUIHWND' /&gt;&lt;ctrl name='Ribbon' role='property page' /&gt;&lt;ctrl name='Lower Ribbon' role='pane' /&gt;&lt;ctrl name='Home' role='property page' /&gt;&lt;ctrl idx='1' name='New' role='tool bar' /&gt;</t>
+          <t>[selectorPokerExists]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>duplicated</t>
+          <t>Attach Browser poker tournament</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>BrowserScope</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd cls='NetUIHWND' /&gt;&lt;ctrl name='Ribbon' role='property page' /&gt;&lt;ctrl name='Lower Ribbon' role='pane' /&gt;&lt;ctrl name='Home' role='property page' /&gt;&lt;ctrl idx='1' name='New' role='tool bar' /&gt;</t>
+          <t>[selectorPokerExists]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>RunAllTests.xaml</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>Excel application scope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>ExcelApplicationScope</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd cls='NetUIHWND' /&gt;&lt;ctrl name='Ribbon' role='property page' /&gt;&lt;ctrl name='Lower Ribbon' role='pane' /&gt;&lt;ctrl name='Home' role='property page' /&gt;&lt;ctrl idx='1' name='New' role='tool bar' /&gt;</t>
+          <t>&lt;wnd app='notepad.exe' cls='Notepad' title='TestLog.txt - Notepad' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>Test_PokerRoom_Tournament_GetTableNames.xaml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Type Into</t>
+          <t>Attach Browser 'chrome.exe ClubWPT'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>BrowserScope</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd aaname='Shell Folder View' cls='SHELLDLL_DefView' title='ShellView' /&gt;&lt;wnd aaname='Items View' cls='DirectUIHWND' /&gt;</t>
+          <t>&lt;html app='chrome.exe' title='ClubWPT Online Poker and Casino' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>Test_Poker_Tournamnet_GoToTables.xaml</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Type Into 'DirectUIHWND'</t>
+          <t>Attach Browser 'chrome.exe ClubWPT'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TypeInto</t>
+          <t>BrowserScope</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd aaname='Shell Folder View' cls='SHELLDLL_DefView' title='ShellView' /&gt;&lt;wnd aaname='Items View' cls='DirectUIHWND' /&gt;</t>
+          <t>&lt;html app='chrome.exe' title='ClubWPT Online Poker and Casino' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>Test_Zoom_Meeting_CheckBreakoutRooms.xaml</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>duplicated</t>
+          <t>Attach Window 'Zoom.exe Zoom'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Click</t>
+          <t>WindowScope</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;wnd app='explorer.exe' cls='CabinetWClass' title='project1' /&gt;&lt;wnd cls='NetUIHWND' /&gt;&lt;ctrl name='Ribbon' role='property page' /&gt;&lt;ctrl name='Lower Ribbon' role='pane' /&gt;&lt;ctrl name='Home' role='property page' /&gt;&lt;ctrl idx='1' name='New' role='tool bar' /&gt;</t>
+          <t>&lt;wnd app='zoom.exe' cls='ZPContentViewWndClass' title='Zoom Meeting' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Main.xaml</t>
+          <t>Test_Zoom_Meeting_CreateBreakoutRooms.xaml</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
+          <t>Attach Window 'chrome.exe Object'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>WindowScope</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;wnd app='pythonw.exe' cls='Qt5QWindowIcon' title='Spyder (Python 3.7)' /&gt;</t>
+          <t>&lt;wnd app='zoom.exe' cls='ZPContentViewWndClass' title='Zoom Meeting*' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sequence.xaml</t>
+          <t>Test_Zoom_Meeting_RenameBreakoutRoom.xaml</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
+          <t>Attach Window 'chrome.exe Object'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>WindowScope</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;wnd app='pythonw.exe' cls='Qt5QWindowIcon' title='Spyder (Python 3.7)' /&gt;</t>
+          <t>&lt;wnd app='zoom.exe' cls='ZPContentViewWndClass' title='Zoom Meeting*' /&gt;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Click Image 'pythonw.exe Spyder'</t>
+          <t>Element Exists zoom meeting</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ClickImage</t>
+          <t>UiElementExists</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;wnd app='pythonw.exe' cls='Qt5QWindowIcon' title='Spyder (Python 3.7)' /&gt;</t>
+          <t>[selectorZoomWindow]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Attach Window zoom meeting</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WindowScope</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[selectorZoomWindow]</t>
         </is>
       </c>
     </row>
@@ -1460,7 +2352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,12 +2385,454 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ShouldStop</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TransactionItem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SystemException</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Exception</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BusinessException</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BusinessRuleException</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TransactionNumber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dictionary</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RetryNumber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TransactionField2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TransactionField1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TransactionID</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TransactionData</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WindowZoomMeeting</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Main.xaml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BrowserPokerTournament</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SettingsAndConstants</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AssetValue</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GenericValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>QueueRetry</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Boolean</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Screenshot</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ScreenshotFileInfo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FileInfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TestStatus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TestComment</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tests</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FailedTestsCounter</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PassedTestsCounter</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>StartTime</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TestCounter</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TestWorkflowTemplate.xaml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Config</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dictionary</t>
         </is>
       </c>
     </row>
@@ -1513,7 +2847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,12 +2880,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Main.xaml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>argument1</t>
+          <t>in_OrchestratorQueueName</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1568,12 +2902,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>argument2</t>
+          <t>in_TransactionItem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1583,24 +2917,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>In</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>argument3</t>
+          <t>in_Config</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>String, x:Object</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1612,20 +2946,1252 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sequence1Nested.xaml</t>
+          <t>Process.xaml</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>argument4</t>
+          <t>in_ZoomWindow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Process.xaml</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>in_TransactionNumber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>in_TransactionNumber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>in_Config</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>String, x:Object</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>out_TransactionItem</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>String</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>out_TransactionField1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>out_TransactionField2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>out_TransactionID</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>io_TransactionData</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>in_RetryNumber</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>in_ZoomWindow</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GetTransactionData.xaml</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>in_TournamentBrowser</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>in_Config</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>String, x:Object</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>out_ZoomWindow</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>InitAllApplications.xaml</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>out_TournamentBrowser</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>in_ConfigFile</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>in_ConfigSheets</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>String[]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>InitAllSettings.xaml</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>out_Config</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>String, x:Object</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>in_Config</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>String, x:Object</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>io_RetryNumber</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>io_TransactionNumber</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>in_SystemException</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Exception</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RetryCurrentTransaction.xaml</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>in_QueueRetry</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Boolean</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>in_Config</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>String, x:Object</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>in_TransactionItem</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>io_RetryNumber</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>io_TransactionNumber</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>in_TransactionField1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>in_TransactionField2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>in_TransactionID</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>in_SystemException</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Exception</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SetTransactionStatus.xaml</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>in_BusinessException</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BusinessRuleException</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>in_Folder</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TakeScreenshot.xaml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>io_FilePath</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>out_PokerRoomBrowser</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>io_TransactionData</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DataTable</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GetTableNames.xaml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>in_TournamentBrowser</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PokerRoom_Tournament_GoToTables.xaml</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>in_BrowserPoker</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>in_TestLogFile</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RunAllTests.xaml</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>in_OutputExcel</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>in_TestCounter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>io_FailedTestsCounter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>in_TestLogFile</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>out_Status</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>io_PassedTestsCounter</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>InOut</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>in_ExpectedOutcome</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>in_WorkflowFilename</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>in_Exception</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Exception</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>in_ActualOutcome</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RunAllTests_Logging.xaml</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>out_Comment</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>in_WindowMeeting</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>in_RoomName</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Zoom_BreakoutRooms_RenameBreakoutRoom.xaml</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>in_RoomId</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_AttachWindow.xaml</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>out_ZoomWindow</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CheckBreakoutRoomFunctionality.xaml</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>in_ZoomWindow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>in_WindowMeeting</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Window</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Zoom_Meeting_CreateBreakoutRooms.xaml</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>in_RoomsCount</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Int32</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>In</t>
         </is>
